--- a/example/out/edges.xlsx
+++ b/example/out/edges.xlsx
@@ -432,7 +432,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>0.2451439725</v>
+        <v>0.0255</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>0.28126755</v>
+        <v>0.03205</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>0.199093305</v>
+        <v>0.0172</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -474,7 +474,7 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>0.58238928</v>
+        <v>0.0872</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -488,7 +488,7 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>0.1111282575</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="D7">
-        <v>0.1409095275</v>
+        <v>0.00665</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -516,7 +516,7 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>0.1094737425</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -530,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>0.6836761864549907</v>
+        <v>0.08613409896976862</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -544,7 +544,7 @@
         <v>5</v>
       </c>
       <c r="D10">
-        <v>0.03783144739064347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -558,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>0.0960986319878399</v>
+        <v>0.05826718459719642</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -572,7 +572,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>0.1476378990035467</v>
+        <v>0.09356527613578787</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -586,7 +586,7 @@
         <v>8</v>
       </c>
       <c r="D13">
-        <v>0.0490360435875943</v>
+        <v>0.001688903901368012</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -600,7 +600,7 @@
         <v>9</v>
       </c>
       <c r="D14">
-        <v>0.0412092551933795</v>
+        <v>0.003377807802736024</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -614,7 +614,7 @@
         <v>10</v>
       </c>
       <c r="D15">
-        <v>0.03800033778078028</v>
+        <v>0.0001688903901368012</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -628,7 +628,7 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>0.4262439074273412</v>
+        <v>0.04599928238249013</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -642,7 +642,7 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>0.07363621009964534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -656,7 +656,7 @@
         <v>6</v>
       </c>
       <c r="D18">
-        <v>0.137914289182955</v>
+        <v>0.04427700035880876</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -670,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="D19">
-        <v>0.2398511302475781</v>
+        <v>0.1677072120559742</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -684,7 +684,7 @@
         <v>8</v>
       </c>
       <c r="D20">
-        <v>0.1160938809723387</v>
+        <v>0.008611410118406888</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -698,7 +698,7 @@
         <v>9</v>
       </c>
       <c r="D21">
-        <v>0.04025834230355221</v>
+        <v>0.009041980624327234</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -712,7 +712,7 @@
         <v>10</v>
       </c>
       <c r="D22">
-        <v>0.03143164693218514</v>
+        <v>0.0001435235019734482</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -726,7 +726,7 @@
         <v>3</v>
       </c>
       <c r="D23">
-        <v>0.983563002306665</v>
+        <v>0.04176277771033143</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -740,7 +740,7 @@
         <v>4</v>
       </c>
       <c r="D24">
-        <v>0.2484377638912346</v>
+        <v>0.04188418113390797</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -754,7 +754,7 @@
         <v>5</v>
       </c>
       <c r="D25">
-        <v>0.2105135364817288</v>
+        <v>0.07490591234672818</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -768,7 +768,7 @@
         <v>7</v>
       </c>
       <c r="D26">
-        <v>0.9340773339808184</v>
+        <v>0.7006191574602404</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -782,7 +782,7 @@
         <v>8</v>
       </c>
       <c r="D27">
-        <v>0.248742665549036</v>
+        <v>0.007527012261745781</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -796,7 +796,7 @@
         <v>9</v>
       </c>
       <c r="D28">
-        <v>0.1442272672089353</v>
+        <v>0.007648415685322326</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -810,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="D29">
-        <v>0.1369430617943426</v>
+        <v>0.0002428068471530897</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="D30">
-        <v>0.6300944625</v>
+        <v>0.0872</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -838,7 +838,7 @@
         <v>4</v>
       </c>
       <c r="D31">
-        <v>0.1864549907110286</v>
+        <v>0.0277</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -852,7 +852,7 @@
         <v>5</v>
       </c>
       <c r="D32">
-        <v>0.2063867958378185</v>
+        <v>0.11685</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -866,7 +866,7 @@
         <v>6</v>
       </c>
       <c r="D33">
-        <v>0.7540366638339201</v>
+        <v>0.28855</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -880,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="D34">
-        <v>0.1613579212070411</v>
+        <v>0.01095</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -894,7 +894,7 @@
         <v>9</v>
       </c>
       <c r="D35">
-        <v>0.0423564</v>
+        <v>0.01005</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -908,7 +908,7 @@
         <v>10</v>
       </c>
       <c r="D36">
-        <v>0.031542</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -922,7 +922,7 @@
         <v>3</v>
       </c>
       <c r="D37">
-        <v>0.1259724329421626</v>
+        <v>0.005029337803855826</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -936,7 +936,7 @@
         <v>4</v>
       </c>
       <c r="D38">
-        <v>0.01990779547359598</v>
+        <v>0.002095557418273261</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -950,7 +950,7 @@
         <v>5</v>
       </c>
       <c r="D39">
-        <v>0.04233025984911987</v>
+        <v>0.02514668901927913</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -964,7 +964,7 @@
         <v>6</v>
       </c>
       <c r="D40">
-        <v>0.03101424979044426</v>
+        <v>0.01299245599329422</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -978,7 +978,7 @@
         <v>7</v>
       </c>
       <c r="D41">
-        <v>0.07223575020955575</v>
+        <v>0.04589270746018441</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -992,7 +992,7 @@
         <v>9</v>
       </c>
       <c r="D42">
-        <v>0.02996647108130763</v>
+        <v>0.01236378876781224</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1006,7 +1006,7 @@
         <v>10</v>
       </c>
       <c r="D43">
-        <v>0.01802179379715004</v>
+        <v>0.0002095557418273261</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1020,7 +1020,7 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <v>0.42355584</v>
+        <v>0.00665</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1034,7 +1034,7 @@
         <v>4</v>
       </c>
       <c r="D45">
-        <v>0.2404999155548049</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1048,7 +1048,7 @@
         <v>5</v>
       </c>
       <c r="D46">
-        <v>0.1097237172587011</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1062,7 +1062,7 @@
         <v>6</v>
       </c>
       <c r="D47">
-        <v>0.1779774189632148</v>
+        <v>0.00315</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1076,7 +1076,7 @@
         <v>7</v>
       </c>
       <c r="D48">
-        <v>0.0903453</v>
+        <v>0.01005</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1090,7 +1090,7 @@
         <v>8</v>
       </c>
       <c r="D49">
-        <v>0.3063704945515507</v>
+        <v>0.00295</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1104,7 +1104,7 @@
         <v>10</v>
       </c>
       <c r="D50">
-        <v>0.07065</v>
+        <v>0.00045</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1118,7 +1118,7 @@
         <v>3</v>
       </c>
       <c r="D51">
-        <v>0.05073846</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1132,7 +1132,7 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>0.0282046951528458</v>
+        <v>5E-05</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1146,7 +1146,7 @@
         <v>5</v>
       </c>
       <c r="D53">
-        <v>0.01205597416576965</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1160,7 +1160,7 @@
         <v>6</v>
       </c>
       <c r="D54">
-        <v>0.02039577516085954</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1174,7 +1174,7 @@
         <v>7</v>
       </c>
       <c r="D55">
-        <v>0.00980055</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1188,7 +1188,7 @@
         <v>8</v>
       </c>
       <c r="D56">
-        <v>0.03499580888516345</v>
+        <v>5E-05</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1202,7 +1202,7 @@
         <v>9</v>
       </c>
       <c r="D57">
-        <v>0.008750000000000001</v>
+        <v>0.00045</v>
       </c>
     </row>
   </sheetData>
